--- a/observations/summary_files/mtp029/NOMAD_egress_solar_occulations_summary.xlsx
+++ b/observations/summary_files/mtp029/NOMAD_egress_solar_occulations_summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMAD_DOCS\Matlab_f\20180731_NOMAD\MTP029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\summary_files\mtp029\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF1E21B-3148-4946-AD57-265A57A37AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMAD_egress_solar_occulations_" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="988">
   <si>
     <t>Orbit 80/40 or 60/60 or OFF (1-11 = 80/40; 101-111 = 60/60; 12 = switch off)</t>
   </si>
@@ -2773,13 +2774,223 @@
   </si>
   <si>
     <t>2020 JUL 11 10:27:38</t>
+  </si>
+  <si>
+    <t>TC20 FIXED</t>
+  </si>
+  <si>
+    <t>TC20 PRECOOLING</t>
+  </si>
+  <si>
+    <t>TC20 SCI1</t>
+  </si>
+  <si>
+    <t>TC20 SCI2</t>
+  </si>
+  <si>
+    <t>LNO_OBSERVING (1=YES;0=NO)</t>
+  </si>
+  <si>
+    <t>OBSERVATION NUMBER</t>
+  </si>
+  <si>
+    <t>OBSERVATION TYPE</t>
+  </si>
+  <si>
+    <t>APPROX TC START TIME</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>egress</t>
+  </si>
+  <si>
+    <t>2020 JUN 13 18:02:03</t>
+  </si>
+  <si>
+    <t>SO ON</t>
+  </si>
+  <si>
+    <t>2020 JUN 13 21:58:11</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 01:54:19</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 03:52:20</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 13:42:36</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 17:38:35</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 19:36:35</t>
+  </si>
+  <si>
+    <t>2020 JUN 14 23:32:43</t>
+  </si>
+  <si>
+    <t>2020 JUN 15 07:24:46</t>
+  </si>
+  <si>
+    <t>2020 JUN 15 19:12:55</t>
+  </si>
+  <si>
+    <t>2020 JUN 15 21:10:57</t>
+  </si>
+  <si>
+    <t>2020 JUN 16 16:51:10</t>
+  </si>
+  <si>
+    <t>2020 JUN 16 20:47:05</t>
+  </si>
+  <si>
+    <t>2020 JUN 16 22:45:08</t>
+  </si>
+  <si>
+    <t>2020 JUN 17 10:33:09</t>
+  </si>
+  <si>
+    <t>2020 JUN 17 12:31:12</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 00:19:11</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 04:15:11</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 08:11:05</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 10:09:04</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 16:03:09</t>
+  </si>
+  <si>
+    <t>2020 JUN 18 19:59:01</t>
+  </si>
+  <si>
+    <t>2020 JUN 19 03:51:03</t>
+  </si>
+  <si>
+    <t>2020 JUN 19 05:49:01</t>
+  </si>
+  <si>
+    <t>2020 JUN 19 09:44:55</t>
+  </si>
+  <si>
+    <t>2020 JUN 19 15:38:58</t>
+  </si>
+  <si>
+    <t>2020 JUN 22 00:40:00</t>
+  </si>
+  <si>
+    <t>2020 JUN 22 04:36:00</t>
+  </si>
+  <si>
+    <t>2020 JUN 22 18:21:44</t>
+  </si>
+  <si>
+    <t>2020 JUN 22 22:17:32</t>
+  </si>
+  <si>
+    <t>2020 JUN 23 02:13:31</t>
+  </si>
+  <si>
+    <t>2020 JUN 23 17:57:12</t>
+  </si>
+  <si>
+    <t>2020 JUN 25 07:18:14</t>
+  </si>
+  <si>
+    <t>2020 JUN 25 23:01:41</t>
+  </si>
+  <si>
+    <t>2020 JUN 26 02:57:37</t>
+  </si>
+  <si>
+    <t>2020 JUN 27 00:34:54</t>
+  </si>
+  <si>
+    <t>2020 JUN 27 08:26:44</t>
+  </si>
+  <si>
+    <t>2020 JUN 28 08:01:57</t>
+  </si>
+  <si>
+    <t>2020 JUN 28 11:57:45</t>
+  </si>
+  <si>
+    <t>2020 JUN 28 19:49:33</t>
+  </si>
+  <si>
+    <t>2020 JUN 28 23:45:19</t>
+  </si>
+  <si>
+    <t>2020 JUN 29 21:22:36</t>
+  </si>
+  <si>
+    <t>2020 JUN 30 20:57:42</t>
+  </si>
+  <si>
+    <t>2020 JUL 01 00:53:27</t>
+  </si>
+  <si>
+    <t>2020 JUL 03 02:01:25</t>
+  </si>
+  <si>
+    <t>2020 JUL 05 14:56:39</t>
+  </si>
+  <si>
+    <t>2020 JUL 06 02:44:03</t>
+  </si>
+  <si>
+    <t>2020 JUL 06 10:35:44</t>
+  </si>
+  <si>
+    <t>2020 JUL 07 04:16:43</t>
+  </si>
+  <si>
+    <t>2020 JUL 07 12:08:24</t>
+  </si>
+  <si>
+    <t>2020 JUL 07 16:04:08</t>
+  </si>
+  <si>
+    <t>2020 JUL 09 09:19:54</t>
+  </si>
+  <si>
+    <t>2020 JUL 09 13:15:40</t>
+  </si>
+  <si>
+    <t>2020 JUL 09 21:07:10</t>
+  </si>
+  <si>
+    <t>2020 JUL 10 01:02:59</t>
+  </si>
+  <si>
+    <t>2020 JUL 10 14:48:07</t>
+  </si>
+  <si>
+    <t>2020 JUL 10 20:41:43</t>
+  </si>
+  <si>
+    <t>2020 JUL 11 02:35:24</t>
+  </si>
+  <si>
+    <t>2020 JUL 11 10:26:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,6 +3121,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3256,8 +3474,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3578,14 +3797,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AV100" workbookViewId="0">
+      <selection activeCell="BO112" sqref="BO112"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="26" max="26" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3763,8 +3988,35 @@
       <c r="BG1" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>926</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3942,8 +4194,35 @@
       <c r="BG2" t="s">
         <v>67</v>
       </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4121,8 +4400,35 @@
       <c r="BG3" t="s">
         <v>75</v>
       </c>
+      <c r="BH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4300,8 +4606,35 @@
       <c r="BG4" t="s">
         <v>83</v>
       </c>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>6</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4479,8 +4812,35 @@
       <c r="BG5" t="s">
         <v>83</v>
       </c>
+      <c r="BH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>3101</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>3101</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>7</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4658,8 +5018,35 @@
       <c r="BG6" t="s">
         <v>98</v>
       </c>
+      <c r="BH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>1709</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>1709</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4837,8 +5224,35 @@
       <c r="BG7" t="s">
         <v>106</v>
       </c>
+      <c r="BH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>12</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5016,8 +5430,35 @@
       <c r="BG8" t="s">
         <v>114</v>
       </c>
+      <c r="BH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>14</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5195,8 +5636,35 @@
       <c r="BG9" t="s">
         <v>122</v>
       </c>
+      <c r="BH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5374,8 +5842,35 @@
       <c r="BG10" t="s">
         <v>130</v>
       </c>
+      <c r="BH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>17</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO10" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5553,8 +6048,35 @@
       <c r="BG11" t="s">
         <v>138</v>
       </c>
+      <c r="BH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>2141</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>2141</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>19</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5732,8 +6254,35 @@
       <c r="BG12" t="s">
         <v>146</v>
       </c>
+      <c r="BH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>21</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5911,8 +6460,35 @@
       <c r="BG13" t="s">
         <v>154</v>
       </c>
+      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>34</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>34</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>22</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6090,8 +6666,35 @@
       <c r="BG14" t="s">
         <v>162</v>
       </c>
+      <c r="BH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>3110</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>3110</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>25</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6269,8 +6872,35 @@
       <c r="BG15" t="s">
         <v>170</v>
       </c>
+      <c r="BH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>1307</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>1307</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>27</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6448,8 +7078,35 @@
       <c r="BG16" t="s">
         <v>178</v>
       </c>
+      <c r="BH16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>875</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>875</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6627,8 +7284,35 @@
       <c r="BG17" t="s">
         <v>186</v>
       </c>
+      <c r="BH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>821</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>821</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>30</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6806,8 +7490,35 @@
       <c r="BG18" t="s">
         <v>194</v>
       </c>
+      <c r="BH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>32</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6985,8 +7696,35 @@
       <c r="BG19" t="s">
         <v>202</v>
       </c>
+      <c r="BH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>2171</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>2171</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>33</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7164,8 +7902,35 @@
       <c r="BG20" t="s">
         <v>210</v>
       </c>
+      <c r="BH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>779</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>779</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>35</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7343,8 +8108,35 @@
       <c r="BG21" t="s">
         <v>218</v>
       </c>
+      <c r="BH21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>1775</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>1775</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>38</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO21" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="BP21" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7522,8 +8314,35 @@
       <c r="BG22" t="s">
         <v>226</v>
       </c>
+      <c r="BH22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>821</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>821</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>40</v>
+      </c>
+      <c r="BN22" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO22" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="BP22" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7701,8 +8520,35 @@
       <c r="BG23" t="s">
         <v>234</v>
       </c>
+      <c r="BH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>2177</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>2177</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>41</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO23" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="BP23" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7880,8 +8726,35 @@
       <c r="BG24" t="s">
         <v>242</v>
       </c>
+      <c r="BH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>43</v>
+      </c>
+      <c r="BN24" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP24" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -8059,8 +8932,35 @@
       <c r="BG25" t="s">
         <v>250</v>
       </c>
+      <c r="BH25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BK25" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>45</v>
+      </c>
+      <c r="BN25" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BP25" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -8238,8 +9138,35 @@
       <c r="BG26" t="s">
         <v>258</v>
       </c>
+      <c r="BH26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="1">
+        <v>1691</v>
+      </c>
+      <c r="BK26" s="1">
+        <v>1691</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="1">
+        <v>47</v>
+      </c>
+      <c r="BN26" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO26" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="BP26" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8417,8 +9344,35 @@
       <c r="BG27" t="s">
         <v>266</v>
       </c>
+      <c r="BH27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK27" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>48</v>
+      </c>
+      <c r="BN27" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO27" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="BP27" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8596,8 +9550,35 @@
       <c r="BG28" t="s">
         <v>274</v>
       </c>
+      <c r="BH28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>3101</v>
+      </c>
+      <c r="BK28" s="1">
+        <v>3101</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>51</v>
+      </c>
+      <c r="BN28" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BP28" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8775,8 +9756,35 @@
       <c r="BG29" t="s">
         <v>282</v>
       </c>
+      <c r="BH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK29" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>53</v>
+      </c>
+      <c r="BN29" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BP29" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -8954,8 +9962,35 @@
       <c r="BG30" t="s">
         <v>290</v>
       </c>
+      <c r="BH30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>1763</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>1763</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>54</v>
+      </c>
+      <c r="BN30" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO30" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="BP30" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -9133,8 +10168,35 @@
       <c r="BG31" t="s">
         <v>298</v>
       </c>
+      <c r="BH31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="1">
+        <v>875</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>875</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>56</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -9312,8 +10374,35 @@
       <c r="BG32" t="s">
         <v>306</v>
       </c>
+      <c r="BH32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>821</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>821</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>58</v>
+      </c>
+      <c r="BN32" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO32" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="BP32" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9491,8 +10580,35 @@
       <c r="BG33" t="s">
         <v>314</v>
       </c>
+      <c r="BH33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>755</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>755</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>59</v>
+      </c>
+      <c r="BN33" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO33" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="BP33" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9670,8 +10786,35 @@
       <c r="BG34" t="s">
         <v>322</v>
       </c>
+      <c r="BH34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO34" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="BP34" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9849,8 +10992,35 @@
       <c r="BG35" t="s">
         <v>330</v>
       </c>
+      <c r="BH35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>773</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>773</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN35" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO35" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="BP35" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -10028,8 +11198,35 @@
       <c r="BG36" t="s">
         <v>338</v>
       </c>
+      <c r="BH36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ36" s="1">
+        <v>2747</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>2747</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>68</v>
+      </c>
+      <c r="BN36" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO36" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="BP36" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -10207,8 +11404,35 @@
       <c r="BG37" t="s">
         <v>346</v>
       </c>
+      <c r="BH37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK37" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="1">
+        <v>69</v>
+      </c>
+      <c r="BN37" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO37" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="BP37" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -10386,8 +11610,35 @@
       <c r="BG38" t="s">
         <v>354</v>
       </c>
+      <c r="BH38" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="1">
+        <v>755</v>
+      </c>
+      <c r="BK38" s="1">
+        <v>755</v>
+      </c>
+      <c r="BL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="1">
+        <v>71</v>
+      </c>
+      <c r="BN38" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO38" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="BP38" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -10565,8 +11816,35 @@
       <c r="BG39" t="s">
         <v>362</v>
       </c>
+      <c r="BH39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ39" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK39" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="1">
+        <v>74</v>
+      </c>
+      <c r="BN39" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO39" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="BP39" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1</v>
       </c>
@@ -10744,8 +12022,35 @@
       <c r="BG40" t="s">
         <v>370</v>
       </c>
+      <c r="BH40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ40" s="1">
+        <v>34</v>
+      </c>
+      <c r="BK40" s="1">
+        <v>34</v>
+      </c>
+      <c r="BL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="1">
+        <v>76</v>
+      </c>
+      <c r="BN40" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BP40" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10923,8 +12228,35 @@
       <c r="BG41" t="s">
         <v>378</v>
       </c>
+      <c r="BH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="1">
+        <v>767</v>
+      </c>
+      <c r="BK41" s="1">
+        <v>767</v>
+      </c>
+      <c r="BL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM41" s="1">
+        <v>82</v>
+      </c>
+      <c r="BN41" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO41" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP41" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -11102,8 +12434,35 @@
       <c r="BG42" t="s">
         <v>386</v>
       </c>
+      <c r="BH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ42" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BK42" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="1">
+        <v>88</v>
+      </c>
+      <c r="BN42" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO42" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BP42" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -11281,8 +12640,35 @@
       <c r="BG43" t="s">
         <v>394</v>
       </c>
+      <c r="BH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ43" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK43" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM43" s="1">
+        <v>90</v>
+      </c>
+      <c r="BN43" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO43" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BP43" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11460,8 +12846,35 @@
       <c r="BG44" t="s">
         <v>402</v>
       </c>
+      <c r="BH44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ44" s="1">
+        <v>779</v>
+      </c>
+      <c r="BK44" s="1">
+        <v>779</v>
+      </c>
+      <c r="BL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM44" s="1">
+        <v>99</v>
+      </c>
+      <c r="BN44" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO44" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BP44" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -11639,8 +13052,35 @@
       <c r="BG45" t="s">
         <v>410</v>
       </c>
+      <c r="BH45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ45" s="1">
+        <v>1343</v>
+      </c>
+      <c r="BK45" s="1">
+        <v>1343</v>
+      </c>
+      <c r="BL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="1">
+        <v>101</v>
+      </c>
+      <c r="BN45" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO45" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BP45" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -11818,8 +13258,35 @@
       <c r="BG46" t="s">
         <v>418</v>
       </c>
+      <c r="BH46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI46" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ46" s="1">
+        <v>929</v>
+      </c>
+      <c r="BK46" s="1">
+        <v>929</v>
+      </c>
+      <c r="BL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM46" s="1">
+        <v>103</v>
+      </c>
+      <c r="BN46" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO46" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="BP46" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -11997,8 +13464,35 @@
       <c r="BG47" t="s">
         <v>426</v>
       </c>
+      <c r="BH47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ47" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BK47" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM47" s="1">
+        <v>105</v>
+      </c>
+      <c r="BN47" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO47" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="BP47" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -12176,8 +13670,35 @@
       <c r="BG48" t="s">
         <v>434</v>
       </c>
+      <c r="BH48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ48" s="1">
+        <v>34</v>
+      </c>
+      <c r="BK48" s="1">
+        <v>34</v>
+      </c>
+      <c r="BL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM48" s="1">
+        <v>112</v>
+      </c>
+      <c r="BN48" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO48" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="BP48" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -12355,8 +13876,35 @@
       <c r="BG49" t="s">
         <v>442</v>
       </c>
+      <c r="BH49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI49" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ49" s="1">
+        <v>1763</v>
+      </c>
+      <c r="BK49" s="1">
+        <v>1763</v>
+      </c>
+      <c r="BL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM49" s="1">
+        <v>114</v>
+      </c>
+      <c r="BN49" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO49" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="BP49" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12534,8 +14082,35 @@
       <c r="BG50" t="s">
         <v>450</v>
       </c>
+      <c r="BH50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI50" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ50" s="1">
+        <v>1691</v>
+      </c>
+      <c r="BK50" s="1">
+        <v>1691</v>
+      </c>
+      <c r="BL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM50" s="1">
+        <v>116</v>
+      </c>
+      <c r="BN50" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO50" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="BP50" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -12713,8 +14288,35 @@
       <c r="BG51" t="s">
         <v>458</v>
       </c>
+      <c r="BH51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI51" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ51" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BK51" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM51" s="1">
+        <v>124</v>
+      </c>
+      <c r="BN51" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO51" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="BP51" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
@@ -12892,8 +14494,35 @@
       <c r="BG52" t="s">
         <v>466</v>
       </c>
+      <c r="BH52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI52" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ52" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BK52" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BL52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM52" s="1">
+        <v>126</v>
+      </c>
+      <c r="BN52" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO52" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BP52" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -13071,8 +14700,35 @@
       <c r="BG53" t="s">
         <v>474</v>
       </c>
+      <c r="BH53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI53" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ53" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BK53" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM53" s="1">
+        <v>128</v>
+      </c>
+      <c r="BN53" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO53" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="BP53" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
@@ -13250,8 +14906,35 @@
       <c r="BG54" t="s">
         <v>474</v>
       </c>
+      <c r="BH54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI54" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ54" s="1">
+        <v>3101</v>
+      </c>
+      <c r="BK54" s="1">
+        <v>3101</v>
+      </c>
+      <c r="BL54" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM54" s="1">
+        <v>130</v>
+      </c>
+      <c r="BN54" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO54" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BP54" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
@@ -13429,8 +15112,35 @@
       <c r="BG55" t="s">
         <v>489</v>
       </c>
+      <c r="BH55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI55" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ55" s="1">
+        <v>755</v>
+      </c>
+      <c r="BK55" s="1">
+        <v>755</v>
+      </c>
+      <c r="BL55" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM55" s="1">
+        <v>139</v>
+      </c>
+      <c r="BN55" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO55" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP55" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -13608,8 +15318,35 @@
       <c r="BG56" t="s">
         <v>497</v>
       </c>
+      <c r="BH56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI56" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ56" s="1">
+        <v>3110</v>
+      </c>
+      <c r="BK56" s="1">
+        <v>3110</v>
+      </c>
+      <c r="BL56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="1">
+        <v>141</v>
+      </c>
+      <c r="BN56" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO56" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BP56" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
@@ -13787,8 +15524,35 @@
       <c r="BG57" t="s">
         <v>505</v>
       </c>
+      <c r="BH57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI57" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ57" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK57" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL57" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM57" s="1">
+        <v>143</v>
+      </c>
+      <c r="BN57" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO57" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="BP57" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -13966,8 +15730,35 @@
       <c r="BG58" t="s">
         <v>513</v>
       </c>
+      <c r="BH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI58" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ58" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK58" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM58" s="1">
+        <v>151</v>
+      </c>
+      <c r="BN58" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO58" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="BP58" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -14145,8 +15936,35 @@
       <c r="BG59" t="s">
         <v>521</v>
       </c>
+      <c r="BH59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI59" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ59" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BK59" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BL59" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="1">
+        <v>153</v>
+      </c>
+      <c r="BN59" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO59" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="BP59" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
@@ -14324,8 +16142,35 @@
       <c r="BG60" t="s">
         <v>529</v>
       </c>
+      <c r="BH60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI60" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ60" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BK60" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM60" s="1">
+        <v>155</v>
+      </c>
+      <c r="BN60" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO60" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BP60" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
@@ -14503,8 +16348,35 @@
       <c r="BG61" t="s">
         <v>521</v>
       </c>
+      <c r="BH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI61" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ61" s="1">
+        <v>755</v>
+      </c>
+      <c r="BK61" s="1">
+        <v>755</v>
+      </c>
+      <c r="BL61" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM61" s="1">
+        <v>157</v>
+      </c>
+      <c r="BN61" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO61" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="BP61" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -14682,8 +16554,35 @@
       <c r="BG62" t="s">
         <v>544</v>
       </c>
+      <c r="BH62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI62" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ62" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BK62" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BL62" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM62" s="1">
+        <v>164</v>
+      </c>
+      <c r="BN62" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO62" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="BP62" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
@@ -14861,8 +16760,35 @@
       <c r="BG63" t="s">
         <v>552</v>
       </c>
+      <c r="BH63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI63" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ63" s="1">
+        <v>1511</v>
+      </c>
+      <c r="BK63" s="1">
+        <v>1511</v>
+      </c>
+      <c r="BL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM63" s="1">
+        <v>166</v>
+      </c>
+      <c r="BN63" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO63" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BP63" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
@@ -15040,8 +16966,35 @@
       <c r="BG64" t="s">
         <v>544</v>
       </c>
+      <c r="BH64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI64" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ64" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BK64" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM64" s="1">
+        <v>168</v>
+      </c>
+      <c r="BN64" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO64" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="BP64" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
@@ -15219,8 +17172,35 @@
       <c r="BG65" t="s">
         <v>567</v>
       </c>
+      <c r="BH65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI65" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ65" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BK65" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM65" s="1">
+        <v>180</v>
+      </c>
+      <c r="BN65" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO65" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="BP65" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -15398,8 +17378,35 @@
       <c r="BG66" t="s">
         <v>575</v>
       </c>
+      <c r="BH66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ66" s="1">
+        <v>767</v>
+      </c>
+      <c r="BK66" s="1">
+        <v>767</v>
+      </c>
+      <c r="BL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM66" s="1">
+        <v>182</v>
+      </c>
+      <c r="BN66" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO66" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="BP66" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
@@ -15577,8 +17584,35 @@
       <c r="BG67" t="s">
         <v>575</v>
       </c>
+      <c r="BH67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI67" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ67" s="1">
+        <v>809</v>
+      </c>
+      <c r="BK67" s="1">
+        <v>809</v>
+      </c>
+      <c r="BL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM67" s="1">
+        <v>186</v>
+      </c>
+      <c r="BN67" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO67" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="BP67" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
@@ -15756,8 +17790,35 @@
       <c r="BG68" t="s">
         <v>590</v>
       </c>
+      <c r="BH68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ68" s="1">
+        <v>34</v>
+      </c>
+      <c r="BK68" s="1">
+        <v>34</v>
+      </c>
+      <c r="BL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM68" s="1">
+        <v>188</v>
+      </c>
+      <c r="BN68" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO68" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="BP68" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -15935,8 +17996,35 @@
       <c r="BG69" t="s">
         <v>590</v>
       </c>
+      <c r="BH69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI69" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ69" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BK69" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM69" s="1">
+        <v>194</v>
+      </c>
+      <c r="BN69" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO69" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="BP69" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
@@ -16114,8 +18202,35 @@
       <c r="BG70" t="s">
         <v>605</v>
       </c>
+      <c r="BH70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ70" s="1">
+        <v>2651</v>
+      </c>
+      <c r="BK70" s="1">
+        <v>2651</v>
+      </c>
+      <c r="BL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM70" s="1">
+        <v>196</v>
+      </c>
+      <c r="BN70" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO70" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="BP70" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -16293,8 +18408,35 @@
       <c r="BG71" t="s">
         <v>575</v>
       </c>
+      <c r="BH71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI71" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ71" s="1">
+        <v>3110</v>
+      </c>
+      <c r="BK71" s="1">
+        <v>3110</v>
+      </c>
+      <c r="BL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM71" s="1">
+        <v>199</v>
+      </c>
+      <c r="BN71" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO71" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="BP71" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -16472,8 +18614,35 @@
       <c r="BG72" t="s">
         <v>590</v>
       </c>
+      <c r="BH72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI72" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ72" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BK72" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM72" s="1">
+        <v>207</v>
+      </c>
+      <c r="BN72" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO72" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="BP72" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
@@ -16651,8 +18820,35 @@
       <c r="BG73" t="s">
         <v>605</v>
       </c>
+      <c r="BH73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI73" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ73" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BK73" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BL73" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM73" s="1">
+        <v>209</v>
+      </c>
+      <c r="BN73" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO73" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="BP73" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1</v>
       </c>
@@ -16830,8 +19026,35 @@
       <c r="BG74" t="s">
         <v>567</v>
       </c>
+      <c r="BH74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI74" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ74" s="1">
+        <v>1511</v>
+      </c>
+      <c r="BK74" s="1">
+        <v>1511</v>
+      </c>
+      <c r="BL74" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM74" s="1">
+        <v>211</v>
+      </c>
+      <c r="BN74" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO74" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="BP74" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -17009,8 +19232,35 @@
       <c r="BG75" t="s">
         <v>590</v>
       </c>
+      <c r="BH75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI75" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ75" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK75" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM75" s="1">
+        <v>213</v>
+      </c>
+      <c r="BN75" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO75" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="BP75" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -17188,8 +19438,35 @@
       <c r="BG76" t="s">
         <v>590</v>
       </c>
+      <c r="BH76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI76" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ76" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BK76" s="1">
+        <v>2705</v>
+      </c>
+      <c r="BL76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM76" s="1">
+        <v>219</v>
+      </c>
+      <c r="BN76" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO76" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="BP76" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
@@ -17367,8 +19644,35 @@
       <c r="BG77" t="s">
         <v>575</v>
       </c>
+      <c r="BH77" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI77" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ77" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK77" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BL77" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM77" s="1">
+        <v>224</v>
+      </c>
+      <c r="BN77" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO77" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP77" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -17546,8 +19850,35 @@
       <c r="BG78" t="s">
         <v>575</v>
       </c>
+      <c r="BH78" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI78" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ78" s="1">
+        <v>46</v>
+      </c>
+      <c r="BK78" s="1">
+        <v>46</v>
+      </c>
+      <c r="BL78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM78" s="1">
+        <v>226</v>
+      </c>
+      <c r="BN78" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="BP78" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
@@ -17725,8 +20056,35 @@
       <c r="BG79" t="s">
         <v>575</v>
       </c>
+      <c r="BH79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI79" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ79" s="1">
+        <v>767</v>
+      </c>
+      <c r="BK79" s="1">
+        <v>767</v>
+      </c>
+      <c r="BL79" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM79" s="1">
+        <v>234</v>
+      </c>
+      <c r="BN79" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO79" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="BP79" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
@@ -17904,8 +20262,35 @@
       <c r="BG80" t="s">
         <v>544</v>
       </c>
+      <c r="BH80" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI80" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ80" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK80" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL80" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM80" s="1">
+        <v>236</v>
+      </c>
+      <c r="BN80" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO80" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="BP80" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -18083,8 +20468,35 @@
       <c r="BG81" t="s">
         <v>544</v>
       </c>
+      <c r="BH81" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI81" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ81" s="1">
+        <v>2147</v>
+      </c>
+      <c r="BK81" s="1">
+        <v>2147</v>
+      </c>
+      <c r="BL81" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM81" s="1">
+        <v>238</v>
+      </c>
+      <c r="BN81" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO81" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="BP81" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -18262,8 +20674,35 @@
       <c r="BG82" t="s">
         <v>690</v>
       </c>
+      <c r="BH82" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI82" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ82" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BK82" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BL82" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM82" s="1">
+        <v>240</v>
+      </c>
+      <c r="BN82" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO82" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="BP82" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -18441,8 +20880,35 @@
       <c r="BG83" t="s">
         <v>529</v>
       </c>
+      <c r="BH83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI83" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ83" s="1">
+        <v>1103</v>
+      </c>
+      <c r="BK83" s="1">
+        <v>1103</v>
+      </c>
+      <c r="BL83" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM83" s="1">
+        <v>246</v>
+      </c>
+      <c r="BN83" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO83" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BP83" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -18620,8 +21086,35 @@
       <c r="BG84" t="s">
         <v>513</v>
       </c>
+      <c r="BH84" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI84" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ84" s="1">
+        <v>809</v>
+      </c>
+      <c r="BK84" s="1">
+        <v>809</v>
+      </c>
+      <c r="BL84" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM84" s="1">
+        <v>249</v>
+      </c>
+      <c r="BN84" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO84" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="BP84" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -18799,8 +21292,35 @@
       <c r="BG85" t="s">
         <v>513</v>
       </c>
+      <c r="BH85" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI85" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ85" s="1">
+        <v>1763</v>
+      </c>
+      <c r="BK85" s="1">
+        <v>1763</v>
+      </c>
+      <c r="BL85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM85" s="1">
+        <v>251</v>
+      </c>
+      <c r="BN85" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO85" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="BP85" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -18978,8 +21498,35 @@
       <c r="BG86" t="s">
         <v>719</v>
       </c>
+      <c r="BH86" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI86" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ86" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BK86" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BL86" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM86" s="1">
+        <v>263</v>
+      </c>
+      <c r="BN86" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO86" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="BP86" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -19157,8 +21704,35 @@
       <c r="BG87" t="s">
         <v>727</v>
       </c>
+      <c r="BH87" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI87" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ87" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BK87" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BL87" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM87" s="1">
+        <v>265</v>
+      </c>
+      <c r="BN87" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO87" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="BP87" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -19336,8 +21910,35 @@
       <c r="BG88" t="s">
         <v>727</v>
       </c>
+      <c r="BH88" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI88" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ88" s="1">
+        <v>821</v>
+      </c>
+      <c r="BK88" s="1">
+        <v>821</v>
+      </c>
+      <c r="BL88" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM88" s="1">
+        <v>267</v>
+      </c>
+      <c r="BN88" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO88" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="BP88" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -19515,8 +22116,35 @@
       <c r="BG89" t="s">
         <v>742</v>
       </c>
+      <c r="BH89" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI89" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ89" s="1">
+        <v>1307</v>
+      </c>
+      <c r="BK89" s="1">
+        <v>1307</v>
+      </c>
+      <c r="BL89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM89" s="1">
+        <v>269</v>
+      </c>
+      <c r="BN89" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO89" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="BP89" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -19694,8 +22322,35 @@
       <c r="BG90" t="s">
         <v>750</v>
       </c>
+      <c r="BH90" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI90" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ90" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK90" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BL90" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM90" s="1">
+        <v>275</v>
+      </c>
+      <c r="BN90" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO90" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="BP90" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -19873,8 +22528,35 @@
       <c r="BG91" t="s">
         <v>758</v>
       </c>
+      <c r="BH91" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI91" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ91" s="1">
+        <v>1307</v>
+      </c>
+      <c r="BK91" s="1">
+        <v>1307</v>
+      </c>
+      <c r="BL91" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM91" s="1">
+        <v>277</v>
+      </c>
+      <c r="BN91" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO91" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="BP91" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1</v>
       </c>
@@ -20052,8 +22734,35 @@
       <c r="BG92" t="s">
         <v>766</v>
       </c>
+      <c r="BH92" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI92" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ92" s="1">
+        <v>1103</v>
+      </c>
+      <c r="BK92" s="1">
+        <v>1103</v>
+      </c>
+      <c r="BL92" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM92" s="1">
+        <v>279</v>
+      </c>
+      <c r="BN92" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO92" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="BP92" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
@@ -20231,8 +22940,35 @@
       <c r="BG93" t="s">
         <v>434</v>
       </c>
+      <c r="BH93" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI93" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ93" s="1">
+        <v>749</v>
+      </c>
+      <c r="BK93" s="1">
+        <v>749</v>
+      </c>
+      <c r="BL93" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM93" s="1">
+        <v>288</v>
+      </c>
+      <c r="BN93" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO93" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="BP93" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1</v>
       </c>
@@ -20410,8 +23146,35 @@
       <c r="BG94" t="s">
         <v>781</v>
       </c>
+      <c r="BH94" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI94" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ94" s="1">
+        <v>875</v>
+      </c>
+      <c r="BK94" s="1">
+        <v>875</v>
+      </c>
+      <c r="BL94" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM94" s="1">
+        <v>290</v>
+      </c>
+      <c r="BN94" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO94" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="BP94" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1</v>
       </c>
@@ -20589,8 +23352,35 @@
       <c r="BG95" t="s">
         <v>789</v>
       </c>
+      <c r="BH95" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI95" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ95" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BK95" s="1">
+        <v>2687</v>
+      </c>
+      <c r="BL95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM95" s="1">
+        <v>292</v>
+      </c>
+      <c r="BN95" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO95" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="BP95" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1</v>
       </c>
@@ -20768,8 +23558,35 @@
       <c r="BG96" t="s">
         <v>426</v>
       </c>
+      <c r="BH96" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI96" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ96" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BK96" s="1">
+        <v>1193</v>
+      </c>
+      <c r="BL96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM96" s="1">
+        <v>294</v>
+      </c>
+      <c r="BN96" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO96" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="BP96" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1</v>
       </c>
@@ -20947,8 +23764,35 @@
       <c r="BG97" t="s">
         <v>402</v>
       </c>
+      <c r="BH97" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI97" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ97" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BK97" s="1">
+        <v>1889</v>
+      </c>
+      <c r="BL97" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM97" s="1">
+        <v>300</v>
+      </c>
+      <c r="BN97" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO97" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="BP97" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -21126,8 +23970,35 @@
       <c r="BG98" t="s">
         <v>811</v>
       </c>
+      <c r="BH98" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI98" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ98" s="1">
+        <v>755</v>
+      </c>
+      <c r="BK98" s="1">
+        <v>755</v>
+      </c>
+      <c r="BL98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM98" s="1">
+        <v>302</v>
+      </c>
+      <c r="BN98" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO98" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="BP98" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1</v>
       </c>
@@ -21305,8 +24176,35 @@
       <c r="BG99" t="s">
         <v>394</v>
       </c>
+      <c r="BH99" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI99" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ99" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BK99" s="1">
+        <v>1781</v>
+      </c>
+      <c r="BL99" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM99" s="1">
+        <v>306</v>
+      </c>
+      <c r="BN99" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO99" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="BP99" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1</v>
       </c>
@@ -21484,8 +24382,35 @@
       <c r="BG100" t="s">
         <v>378</v>
       </c>
+      <c r="BH100" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI100" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ100" s="1">
+        <v>46</v>
+      </c>
+      <c r="BK100" s="1">
+        <v>46</v>
+      </c>
+      <c r="BL100" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM100" s="1">
+        <v>315</v>
+      </c>
+      <c r="BN100" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO100" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="BP100" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -21663,8 +24588,35 @@
       <c r="BG101" t="s">
         <v>833</v>
       </c>
+      <c r="BH101" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI101" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ101" s="1">
+        <v>761</v>
+      </c>
+      <c r="BK101" s="1">
+        <v>761</v>
+      </c>
+      <c r="BL101" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM101" s="1">
+        <v>317</v>
+      </c>
+      <c r="BN101" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO101" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="BP101" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -21842,8 +24794,35 @@
       <c r="BG102" t="s">
         <v>841</v>
       </c>
+      <c r="BH102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI102" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ102" s="1">
+        <v>761</v>
+      </c>
+      <c r="BK102" s="1">
+        <v>761</v>
+      </c>
+      <c r="BL102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM102" s="1">
+        <v>319</v>
+      </c>
+      <c r="BN102" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO102" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="BP102" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1</v>
       </c>
@@ -22021,8 +25000,35 @@
       <c r="BG103" t="s">
         <v>849</v>
       </c>
+      <c r="BH103" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI103" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ103" s="1">
+        <v>761</v>
+      </c>
+      <c r="BK103" s="1">
+        <v>761</v>
+      </c>
+      <c r="BL103" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM103" s="1">
+        <v>321</v>
+      </c>
+      <c r="BN103" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO103" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="BP103" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -22200,8 +25206,35 @@
       <c r="BG104" t="s">
         <v>857</v>
       </c>
+      <c r="BH104" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI104" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ104" s="1">
+        <v>53</v>
+      </c>
+      <c r="BK104" s="1">
+        <v>53</v>
+      </c>
+      <c r="BL104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM104" s="1">
+        <v>323</v>
+      </c>
+      <c r="BN104" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO104" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="BP104" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1</v>
       </c>
@@ -22379,8 +25412,35 @@
       <c r="BG105" t="s">
         <v>354</v>
       </c>
+      <c r="BH105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI105" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ105" s="1">
+        <v>767</v>
+      </c>
+      <c r="BK105" s="1">
+        <v>767</v>
+      </c>
+      <c r="BL105" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM105" s="1">
+        <v>325</v>
+      </c>
+      <c r="BN105" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO105" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="BP105" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1</v>
       </c>
@@ -22558,8 +25618,35 @@
       <c r="BG106" t="s">
         <v>872</v>
       </c>
+      <c r="BH106" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI106" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ106" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BK106" s="1">
+        <v>2693</v>
+      </c>
+      <c r="BL106" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM106" s="1">
+        <v>327</v>
+      </c>
+      <c r="BN106" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO106" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="BP106" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1</v>
       </c>
@@ -22737,8 +25824,35 @@
       <c r="BG107" t="s">
         <v>346</v>
       </c>
+      <c r="BH107" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI107" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ107" s="1">
+        <v>1103</v>
+      </c>
+      <c r="BK107" s="1">
+        <v>1103</v>
+      </c>
+      <c r="BL107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM107" s="1">
+        <v>328</v>
+      </c>
+      <c r="BN107" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO107" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="BP107" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -22916,8 +26030,35 @@
       <c r="BG108" t="s">
         <v>887</v>
       </c>
+      <c r="BH108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ108" s="1">
+        <v>2171</v>
+      </c>
+      <c r="BK108" s="1">
+        <v>2171</v>
+      </c>
+      <c r="BL108" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM108" s="1">
+        <v>330</v>
+      </c>
+      <c r="BN108" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO108" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="BP108" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1</v>
       </c>
@@ -23095,8 +26236,35 @@
       <c r="BG109" t="s">
         <v>330</v>
       </c>
+      <c r="BH109" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI109" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ109" s="1">
+        <v>755</v>
+      </c>
+      <c r="BK109" s="1">
+        <v>755</v>
+      </c>
+      <c r="BL109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM109" s="1">
+        <v>332</v>
+      </c>
+      <c r="BN109" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO109" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="BP109" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="110" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1</v>
       </c>
@@ -23274,8 +26442,35 @@
       <c r="BG110" t="s">
         <v>902</v>
       </c>
+      <c r="BH110" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI110" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ110" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BK110" s="1">
+        <v>2735</v>
+      </c>
+      <c r="BL110" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM110" s="1">
+        <v>333</v>
+      </c>
+      <c r="BN110" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO110" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="BP110" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="111" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1</v>
       </c>
@@ -23453,8 +26648,35 @@
       <c r="BG111" t="s">
         <v>910</v>
       </c>
+      <c r="BH111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ111" s="1">
+        <v>785</v>
+      </c>
+      <c r="BK111" s="1">
+        <v>785</v>
+      </c>
+      <c r="BL111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM111" s="1">
+        <v>336</v>
+      </c>
+      <c r="BN111" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO111" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="BP111" s="1" t="s">
+        <v>929</v>
+      </c>
     </row>
-    <row r="112" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1</v>
       </c>
@@ -23631,9 +26853,37 @@
       </c>
       <c r="BG112" t="s">
         <v>290</v>
+      </c>
+      <c r="BH112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ112" s="1">
+        <v>761</v>
+      </c>
+      <c r="BK112" s="1">
+        <v>761</v>
+      </c>
+      <c r="BL112" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM112" s="1">
+        <v>340</v>
+      </c>
+      <c r="BN112" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="BO112" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="BP112" s="1" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>